--- a/printer/templates/void.xlsx
+++ b/printer/templates/void.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\source\- back\template-printing-api\printer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FRONTSERVER\printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>{{SectionName}}</t>
+  </si>
+  <si>
+    <t>{{PrinterName}}</t>
   </si>
 </sst>
 </file>
@@ -312,6 +315,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,15 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1151,7 +1154,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="145" zoomScaleSheetLayoutView="205" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1168,12 +1171,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1188,39 +1191,41 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="J5" s="10"/>
     </row>
@@ -1235,15 +1240,15 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1257,34 +1262,34 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -1302,13 +1307,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
